--- a/テスト仕様書/(演習3)テスト仕様書.xlsx
+++ b/テスト仕様書/(演習3)テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/ex-intermediate-answer/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8EB50B-240C-EB41-92D7-A9AC4DDC8716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A13E64-7A1B-D340-9F50-21C82DA88BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備用SQL" sheetId="4" r:id="rId1"/>
@@ -558,12 +558,646 @@
   </si>
   <si>
     <r>
+      <t>・ブラウザが表示されていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「事前準備用SQL」シートのSQLが実行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索画面が表示されていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「事前準備用SQL」シートのSQLが実行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ワイシャツ、M、3,500</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スーツ、L、8,000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・衣類検索デシジョンテーブルの「TC3」の内容を選択した場合、正常に結果が表示されるか
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・複数件検索することができるか</t>
+    </r>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">ケン </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC1」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内容を選択し、「検索」ボタンを押下する</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC1」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC2」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内容を選択し、「検索」ボタンを押下する</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC2」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC3」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内容を選択し、「検索」ボタンを押下する</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC3」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC4」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内容を選択し、「検索」ボタンを押下する</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC4」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC5」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内容を選択し、「検索」ボタンを押下する</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC5」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC6」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内容を選択し、「検索」ボタンを押下する</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・衣類検索デシジョンテーブル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「TC6」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>衣類検索画面が表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>MAN,WOMANラジオボタン、色選択セレクトボックス、検索ボタンが表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>MAN、赤が選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t xml:space="preserve">アカ </t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
       <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -572,702 +1206,32 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Inherit"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> --</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <rPh sb="74" eb="76">
+      <t>ヨウフク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>最初に用意されていたデータに追加しました</t>
-    </r>
-    <rPh sb="74" eb="76">
-      <t>ヨウフク</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>サイセィオ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>INSERT INTO clothes(category, genre, gender, color, price, size) VALUES ('</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">洋服','スーツ　　　',1,'青',8000,'L'); </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>最初に用意されていたデータに追加しました</t>
     </r>
     <rPh sb="90" eb="91">
       <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ブラウザが表示されていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「事前準備用SQL」シートのSQLが実行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索画面が表示されていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「事前準備用SQL」シートのSQLが実行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ワイシャツ、M、3,500</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スーツ、L、8,000</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・衣類検索デシジョンテーブルの「TC3」の内容を選択した場合、正常に結果が表示されるか
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・複数件検索することができるか</t>
-    </r>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t xml:space="preserve">ケン </t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC1」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内容を選択し、「検索」ボタンを押下する</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC1」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC2」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内容を選択し、「検索」ボタンを押下する</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC2」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC3」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内容を選択し、「検索」ボタンを押下する</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC3」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC4」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内容を選択し、「検索」ボタンを押下する</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC4」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC5」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内容を選択し、「検索」ボタンを押下する</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC5」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブルの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC6」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内容を選択し、「検索」ボタンを押下する</t>
-    </r>
-    <rPh sb="21" eb="23">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・衣類検索デシジョンテーブル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「TC6」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>衣類検索画面が表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>MAN,WOMANラジオボタン、色選択セレクトボックス、検索ボタンが表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>MAN、赤が選択</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>イルイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t xml:space="preserve">アカ </t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1350,12 +1314,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1366,15 +1324,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
       <family val="2"/>
-      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1531,17 +1495,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1567,23 +1540,14 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1868,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF5047B-CB01-3746-84C5-802609447ED7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2130,37 +2094,37 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1">
-      <c r="A17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" s="13" customFormat="1">
-      <c r="A18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+    <row r="17" spans="1:12" s="12" customFormat="1">
+      <c r="A17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" s="12" customFormat="1">
+      <c r="A18" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
@@ -2312,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -2329,19 +2293,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="K1" s="7" t="s">
         <v>59</v>
       </c>
@@ -2359,17 +2323,17 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:25" ht="20">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
@@ -2443,27 +2407,27 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="F4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="K4" s="4" t="s">
         <v>67</v>
       </c>
@@ -2493,15 +2457,15 @@
       <c r="W4" s="3"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="K5" s="4" t="s">
         <v>46</v>
       </c>
@@ -2531,15 +2495,15 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="K6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2569,15 +2533,15 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
       <c r="K7" s="4" t="s">
         <v>47</v>
       </c>
@@ -2607,15 +2571,15 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="K8" s="4" t="s">
         <v>48</v>
       </c>
@@ -2645,27 +2609,27 @@
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="D9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="K9" s="4" t="s">
         <v>49</v>
       </c>
@@ -2697,15 +2661,15 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2723,15 +2687,15 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
@@ -2750,15 +2714,15 @@
       <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="K12" s="4" t="s">
         <v>52</v>
       </c>
@@ -2788,15 +2752,15 @@
       <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="K13" s="4" t="s">
         <v>55</v>
       </c>
@@ -2826,27 +2790,27 @@
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="13" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="D14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="K14" s="5" t="s">
         <v>56</v>
       </c>
@@ -2876,15 +2840,15 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="13" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="K15" s="5" t="s">
         <v>58</v>
       </c>
@@ -2914,17 +2878,17 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="13" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="K16" s="14" t="s">
-        <v>72</v>
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>41</v>
@@ -2952,17 +2916,17 @@
       <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="K17" s="14" t="s">
-        <v>73</v>
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>41</v>
@@ -2984,15 +2948,15 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="K18" s="4" t="s">
         <v>53</v>
       </c>
@@ -3016,295 +2980,305 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="C19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" ht="13" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" ht="13" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" ht="13" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" ht="13" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" ht="13" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F24" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:17" ht="13" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:17" ht="13" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:17" ht="13" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:17" ht="13" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:17" ht="13" customHeight="1">
-      <c r="A24" s="23" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" ht="13" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" ht="13" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="13" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" ht="13" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" ht="13" customHeight="1">
+      <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="C29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F29" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:17" ht="13" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:17" ht="13" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:17" ht="13" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:17" ht="13" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:17" ht="13" customHeight="1">
-      <c r="A29" s="23" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" ht="13" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" ht="13" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="13" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="13" customHeight="1">
+      <c r="A34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="C34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F34" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:17" ht="13" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:17" ht="13" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-    </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-    </row>
-    <row r="33" spans="1:9" ht="13" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-    </row>
-    <row r="34" spans="1:9" ht="13" customHeight="1">
-      <c r="A34" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" ht="13" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="1:9" ht="13" customHeight="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" ht="13" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" ht="13" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="I19:I23"/>
@@ -3321,36 +3295,26 @@
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書/(演習3)テスト仕様書.xlsx
+++ b/テスト仕様書/(演習3)テスト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/ex-intermediate-answer/テスト仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2023/ex-intermediate-answer/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A13E64-7A1B-D340-9F50-21C82DA88BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83144FD5-A0E5-8147-9BB8-5EEB2E41C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備用SQL" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1232,6 +1232,26 @@
     </r>
     <rPh sb="90" eb="91">
       <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+異常系</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セイジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1461,7 +1481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,16 +1491,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -1489,31 +1500,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,14 +1542,17 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1830,441 +1835,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF5047B-CB01-3746-84C5-802609447ED7}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="10" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="10" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="10" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" s="12" customFormat="1">
-      <c r="A17" s="28" t="s">
+    </row>
+    <row r="17" spans="1:1" s="7" customFormat="1">
+      <c r="A17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" s="12" customFormat="1">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:1" s="7" customFormat="1">
+      <c r="A18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2274,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2292,77 +1965,65 @@
     <col min="11" max="11" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" ht="20">
+      <c r="A1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" ht="20">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="20">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="4" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" ht="17">
+    </row>
+    <row r="3" spans="1:17" ht="17">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2390,865 +2051,826 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="16" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="4" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="K4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="20"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="K6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="20"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="K7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="20"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="K7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="K8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="16" t="s">
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="4" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="K9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="7" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="20"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="20"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="K11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="4" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="20"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="K12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="4" t="s">
+      <c r="M12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="20"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="K13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="L13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="13" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="O13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13" customHeight="1">
+      <c r="A14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="5" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="4" t="s">
+      <c r="L14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="13" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="5" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="K15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="4" t="s">
+      <c r="L15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="13" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13" t="s">
+    </row>
+    <row r="16" spans="1:17" ht="13" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="K16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="L16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="K17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="L17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="4" t="s">
+      <c r="O17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="4" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="K18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="4" t="s">
+      <c r="N18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="4" t="s">
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:17" ht="13" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" ht="13" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" ht="13" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:17" ht="13" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" ht="13" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" ht="13" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:17" ht="13" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:17" ht="13" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:17" ht="13" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:17" ht="13" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:17" ht="13" customHeight="1">
-      <c r="A29" s="16" t="s">
+      <c r="E29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" ht="13" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:17" ht="13" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="13" customHeight="1">
+      <c r="A33" s="20"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" ht="13" customHeight="1">
+      <c r="A34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="C34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:17" ht="13" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:17" ht="13" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="13" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" ht="13" customHeight="1">
-      <c r="A34" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" ht="13" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" ht="13" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" ht="13" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="13" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="A1:F2"/>
@@ -3265,56 +2887,6 @@
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書/(演習3)テスト仕様書.xlsx
+++ b/テスト仕様書/(演習3)テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2023/ex-intermediate-answer/テスト仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/intellij-spring-project/ex-intermediate-answer/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83144FD5-A0E5-8147-9BB8-5EEB2E41C4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF019C8-E84F-8E48-8DBE-C28C55052B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -173,26 +173,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>入力系画面
-異常系</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>衣類検索画面を表示する</t>
     <rPh sb="0" eb="2">
       <t>イルイ</t>
@@ -1232,26 +1212,6 @@
     </r>
     <rPh sb="90" eb="91">
       <t>アオ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力系画面
-異常系</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>セイジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1512,10 +1472,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,17 +1508,11 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1845,17 +1805,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1865,22 +1825,22 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1890,7 +1850,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1900,37 +1860,37 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="7" customFormat="1">
       <c r="A18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1950,7 +1910,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B33"/>
+      <selection activeCell="B24" sqref="B24:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1966,21 +1926,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20">
-      <c r="A1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="A1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="K1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1990,37 +1950,37 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="20">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17">
@@ -2052,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2062,231 +2022,231 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="K4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="20"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="K5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="20"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="20"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="K7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="20"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="K8" s="3" t="s">
+      <c r="E9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="K9" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="20"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -2296,17 +2256,17 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="20"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="K11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2316,531 +2276,541 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="20"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="K14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="K16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="13" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="K18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="20"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="K13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="13" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="L18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="13" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="13" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="13" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" ht="13" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" ht="13" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="13" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="K14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="13" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="K15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="13" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="K16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="13" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="K17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="13" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="K18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="13" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="D24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" ht="13" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" ht="13" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" ht="13" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" ht="13" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" ht="13" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" ht="13" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" ht="13" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" ht="13" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" ht="13" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" ht="13" customHeight="1">
-      <c r="A24" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="D29" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:17" ht="13" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" ht="13" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" ht="13" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" ht="13" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" ht="13" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="F29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" ht="13" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" ht="13" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="13" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="13" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="D34" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:17" ht="13" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-    </row>
-    <row r="31" spans="1:17" ht="13" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" ht="13" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" ht="13" customHeight="1">
-      <c r="A34" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="13" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="13" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="13" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="13" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
     <mergeCell ref="G19:G23"/>
     <mergeCell ref="H19:H23"/>
     <mergeCell ref="I19:I23"/>
@@ -2857,36 +2827,26 @@
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
